--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1229973.263453014</v>
+        <v>1287732.221402709</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>278692.0725916858</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6367797.862597708</v>
+        <v>6950805.962588748</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>70.75434793228402</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>15.90522551551056</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -871,19 +873,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>157.8824880649883</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>169.016847353155</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>56.64050272450903</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>385.4578996949933</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1057,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>127.5805638268478</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1105,22 +1107,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>131.996999652747</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>63.91196241212698</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1148,7 +1150,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>63.30706734560965</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>86.91406253606281</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1342,13 +1344,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>191.4036361854208</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>357.5034900290096</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1421,10 +1423,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1537,7 +1539,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>63.51633119327845</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1546,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,13 +1584,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>159.9075995904319</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>286.175028101389</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1616,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1774,7 +1776,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>71.95361350212661</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1831,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.7469331998935</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>16.92574903168972</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2245,16 +2247,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>64.90507698037962</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>14.14416275345333</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2482,19 +2484,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>53.9004557069453</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>20.73696989209183</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2536,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2956,13 +2958,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>141.0670894717352</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>209.6580956704396</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>130.9826845827117</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3430,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>28.46824604904392</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,10 +3720,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>265.7666606327289</v>
       </c>
       <c r="W40" t="n">
-        <v>162.0469045419234</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3743,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>194.7139705438148</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3907,7 +3909,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>172.4933240080322</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3916,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>146.8581123645739</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3986,16 +3988,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>186.752038861399</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4144,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>14.14416275345384</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>981.4316298953097</v>
+        <v>1238.90086530756</v>
       </c>
       <c r="C2" t="n">
-        <v>947.3295611191371</v>
+        <v>810.3191910448285</v>
       </c>
       <c r="D2" t="n">
-        <v>511.4197762935816</v>
+        <v>778.4498102596771</v>
       </c>
       <c r="E2" t="n">
-        <v>77.64503145187676</v>
+        <v>748.7154694583763</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148855</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862856</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1954.407975719776</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>2598.591788115989</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>2235.974838049816</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1831.119383460849</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1411.97692004016</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1003.690796339813</v>
+        <v>1665.200435792468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K3" t="n">
-        <v>397.8892067392439</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L3" t="n">
-        <v>397.8892067392439</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M3" t="n">
-        <v>397.8892067392439</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N3" t="n">
-        <v>397.8892067392439</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392439</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933183</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>414.7393562644539</v>
+        <v>91.74450617142992</v>
       </c>
       <c r="L4" t="n">
-        <v>832.949238032415</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>2243.522190013251</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1956.566681883682</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>262.5057921365585</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>489.9592645846402</v>
+        <v>1367.397424416625</v>
       </c>
       <c r="C5" t="n">
-        <v>455.8571958084675</v>
+        <v>1333.295355640452</v>
       </c>
       <c r="D5" t="n">
-        <v>423.9878150233161</v>
+        <v>897.3855708148967</v>
       </c>
       <c r="E5" t="n">
-        <v>366.7751860086605</v>
+        <v>463.6108259731919</v>
       </c>
       <c r="F5" t="n">
-        <v>342.9481604582723</v>
+        <v>439.7838004228037</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>518.3865980530361</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>1179.226652594814</v>
+        <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>1840.066707136593</v>
+        <v>485.687074042395</v>
       </c>
       <c r="N5" t="n">
-        <v>2500.906761678371</v>
+        <v>557.7649106726439</v>
       </c>
       <c r="O5" t="n">
-        <v>2500.906761678371</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>2500.906761678371</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2217.900228530727</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2217.900228530727</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739146</v>
+        <v>2217.900228530727</v>
       </c>
       <c r="W5" t="n">
-        <v>1339.64701815018</v>
+        <v>1813.044773941761</v>
       </c>
       <c r="X5" t="n">
-        <v>920.5045547294905</v>
+        <v>1797.942714561475</v>
       </c>
       <c r="Y5" t="n">
-        <v>512.2184310291439</v>
+        <v>1389.656590861129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>714.2412710704069</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>714.2412710704069</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="M6" t="n">
-        <v>714.2412710704069</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="N6" t="n">
-        <v>714.2412710704069</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="O6" t="n">
-        <v>714.2412710704069</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="P6" t="n">
-        <v>1375.081325612185</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>1092.481810793636</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>919.9200992768614</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1143.991608255752</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>2489.401636434797</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1284.300429512624</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1284.300429512624</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1415.517618276922</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C8" t="n">
-        <v>1381.415549500749</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.858011710722</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4802,19 +4804,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4829,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4883,16 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
         <v>1058.729261281022</v>
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>794.0196728252577</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>794.0196728252577</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
         <v>794.0196728252577</v>
@@ -4990,22 +4992,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2296.064630186897</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2017.631629440002</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1730.676121310433</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W10" t="n">
-        <v>1458.649716896724</v>
+        <v>1693.062784852649</v>
       </c>
       <c r="X10" t="n">
-        <v>1213.257962230137</v>
+        <v>1447.671030186061</v>
       </c>
       <c r="Y10" t="n">
-        <v>985.8382915442448</v>
+        <v>1220.251359500169</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1536.053240946889</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1536.053240946889</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1536.053240946889</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1174.93860455395</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>747.0711749631575</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>345.6733435864214</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>56.54318902963762</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677763</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5387406219836</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5387406219836</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5387406219836</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5387406219836</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.668109022718</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.668109022718</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.051158956545</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>1955.195704367578</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>1536.053240946889</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1536.053240946889</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>82.19007281723522</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>406.7483977834476</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K12" t="n">
-        <v>406.7483977834476</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L12" t="n">
-        <v>406.7483977834476</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M12" t="n">
-        <v>406.7483977834476</v>
+        <v>1327.049347523737</v>
       </c>
       <c r="N12" t="n">
-        <v>406.7483977834476</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O12" t="n">
-        <v>406.7483977834476</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1046.524611043334</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C13" t="n">
-        <v>873.9628995265592</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D13" t="n">
-        <v>708.0849067280819</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E13" t="n">
-        <v>538.3269029788192</v>
+        <v>560.572149076143</v>
       </c>
       <c r="F13" t="n">
-        <v>361.6198489405755</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>196.0285739664031</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677763</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141401</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394506</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264937</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W13" t="n">
-        <v>1519.336036395814</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X13" t="n">
-        <v>1273.944281729226</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y13" t="n">
-        <v>1046.524611043334</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1327.208760700774</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1327.208760700774</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>891.2989758752185</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>457.5242310335137</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>457.5242310335137</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677763</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677763</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677763</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>56.12639965677763</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>750.6905954094008</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M14" t="n">
-        <v>750.6905954094008</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>750.6905954094008</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1445.254791162024</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2139.818986914647</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2686.317772873242</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.703032772708</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2443.703032772708</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>2024.560569352019</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1616.274445651672</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677763</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677763</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>736.859919727155</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>736.859919727155</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>736.859919727155</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>736.859919727155</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>736.859919727155</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1431.424115479778</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1046.524611043334</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C16" t="n">
-        <v>873.9628995265592</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D16" t="n">
-        <v>708.0849067280819</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E16" t="n">
-        <v>538.3269029788192</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F16" t="n">
-        <v>361.6198489405755</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>196.0285739664031</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677763</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2492.126819562946</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2246.247373141401</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>1967.814372394506</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1680.858864264937</v>
+        <v>1941.268395329592</v>
       </c>
       <c r="W16" t="n">
-        <v>1408.832459851228</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X16" t="n">
-        <v>1163.440705184641</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1046.524611043334</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5494,22 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5519,10 +5521,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2701.823733979953</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S19" t="n">
-        <v>2701.823733979953</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2455.944287558408</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2177.511286811513</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1890.555778681944</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1618.529374268236</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1373.137619601648</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,49 +5755,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1286.300469346935</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L20" t="n">
-        <v>1286.300469346935</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M20" t="n">
-        <v>2443.348304557486</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993933</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883951</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>639.19296617162</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731427</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292483</v>
+        <v>473.3149733731427</v>
       </c>
       <c r="F22" t="n">
-        <v>282.1391483292483</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>116.5478733550759</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5926,34 +5928,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.992967093274</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407382</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>723.9235564922194</v>
       </c>
       <c r="E25" t="n">
-        <v>473.3149733731391</v>
+        <v>554.1655527429566</v>
       </c>
       <c r="F25" t="n">
-        <v>296.6079193348953</v>
+        <v>377.4584987047128</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>211.8672237305405</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>605.8694973157604</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1680.92946356862</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M29" t="n">
-        <v>2837.977298779171</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N29" t="n">
-        <v>3963.708282215618</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O29" t="n">
-        <v>4943.887948785924</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6546,16 +6548,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>1116.062450089081</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
         <v>1765.500601749588</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E31" t="n">
-        <v>330.8229638057298</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F31" t="n">
-        <v>330.8229638057298</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
         <v>330.8229638057298</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="32">
@@ -6786,10 +6788,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>751.6989919312866</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>751.6989919312866</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>982.1554751127505</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>809.5937635959755</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>677.2880215932364</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>507.5300178439736</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>330.8229638057298</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2093.658967439508</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>782.9943603411569</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M36" t="n">
-        <v>782.9943603411569</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N36" t="n">
-        <v>782.9943603411569</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O36" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
         <v>1765.500601749588</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
         <v>444.5591692831957</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,34 +7174,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>920.0973401405612</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>4320.278394014251</v>
       </c>
       <c r="W40" t="n">
-        <v>1584.727384212028</v>
+        <v>4048.251989600542</v>
       </c>
       <c r="X40" t="n">
-        <v>1339.33562954544</v>
+        <v>3802.860234933955</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.915958859548</v>
+        <v>3575.440564248063</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1552.591825232937</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1114.44935241636</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>917.7685740892747</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>483.9938292475699</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>56.12639965677761</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677761</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677761</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677761</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>56.12639965677761</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>722.6273955810118</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1417.191591333635</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2111.755787086257</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O41" t="n">
-        <v>2806.319982838881</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>2806.319982838881</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838881</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838881</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838881</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838881</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2806.319982838881</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>2387.177519418191</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1978.891395717845</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056514</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677761</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677761</v>
+        <v>414.500552094942</v>
       </c>
       <c r="K42" t="n">
-        <v>736.8599197271549</v>
+        <v>414.500552094942</v>
       </c>
       <c r="L42" t="n">
-        <v>1431.424115479778</v>
+        <v>414.500552094942</v>
       </c>
       <c r="M42" t="n">
-        <v>1431.424115479778</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N42" t="n">
-        <v>1431.424115479778</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O42" t="n">
-        <v>1431.424115479778</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P42" t="n">
-        <v>1431.424115479778</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1044.053237821285</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>871.4915263045096</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>705.6135335060324</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>535.8555297567696</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>361.6198489405754</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>196.0285739664031</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677761</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2513.544640857574</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.665194436029</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U43" t="n">
-        <v>2267.665194436029</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V43" t="n">
-        <v>1980.70968630646</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W43" t="n">
-        <v>1708.683281892751</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1463.291527226164</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1235.871856540272</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1363.953402140615</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>925.8109293240379</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>489.9011444984824</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>56.12639965677761</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>56.12639965677761</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677761</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677761</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>176.1286096224171</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>870.6928053750399</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>870.6928053750399</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>870.6928053750399</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>870.6928053750399</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O44" t="n">
-        <v>1565.257001127663</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>2259.821196880286</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838881</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838881</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>2617.681559746558</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>2617.681559746558</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>2617.681559746558</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2198.539096325869</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>1790.252972625522</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351365</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188007</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.70521633456</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661514</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277676</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.815873543859</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360072</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.14389452053</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486742</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>2148.408266112465</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>2148.408266112465</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>2148.408266112465</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.408266112465</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.408266112465</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112465</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744541</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838881</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287264</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617866</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617834</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679833</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413027</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651907</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431128</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>744.2024157797618</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>571.6407042629868</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>405.7627114645095</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>236.0047077152468</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>221.7176746309499</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.832459851228</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.440705184641</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>936.021034498749</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
-        <v>347.9676668794094</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>469.6822035600077</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>72.80589558611007</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>577.1153547606273</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.6534083847603</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>317.1830304671599</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8529,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>651.931657540612</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8766,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>442.8800547735873</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097205</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>121.2143535006462</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>290.8505511674832</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>756.3484258820585</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,7 +9415,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>69.04441372935651</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10127,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,19 +10196,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>-5.226490029168309e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10434,13 +10436,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>655.9981329904112</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>671.1057765021969</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P36" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10820,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>673.2333292163983</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>290.8505511674834</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>121.2143535006459</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>71.93350736427817</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>109.3985407791395</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>135.8615466786697</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>212.1323395461472</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.3985407791393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>4.277894049992117</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>110.0349065174817</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>110.0349065174853</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>117.7661826744374</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24844,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>26.99333424003493</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>33.27974144948206</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>33.23652828778086</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>18.31929241554491</v>
       </c>
       <c r="W40" t="n">
-        <v>107.259235827648</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>236.8367164334851</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.446659489829159</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>122.4480280049975</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>69.87804079475427</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>587906.0019317163</v>
+        <v>572940.1994625155</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>587906.0019317163</v>
+        <v>585622.5218857907</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>402083.4223769445</v>
+        <v>607490.8232156126</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402083.4223769445</v>
+        <v>607490.8232156126</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>607490.8232156126</v>
+        <v>607490.8232156127</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402083.4223769444</v>
+        <v>607490.8232156126</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402083.4223769444</v>
+        <v>607490.8232156126</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>402110.4899178063</v>
+      </c>
+      <c r="C2" t="n">
         <v>402110.4899178065</v>
-      </c>
-      <c r="C2" t="n">
-        <v>402110.4899178063</v>
       </c>
       <c r="D2" t="n">
         <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>261535.6797661556</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="F2" t="n">
-        <v>261535.6797661556</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="G2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="H2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="I2" t="n">
         <v>395143.1881030142</v>
@@ -26338,22 +26340,22 @@
         <v>395143.1881030141</v>
       </c>
       <c r="K2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="L2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="M2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="N2" t="n">
+        <v>395143.1881030143</v>
+      </c>
+      <c r="O2" t="n">
         <v>395143.1881030142</v>
       </c>
-      <c r="O2" t="n">
-        <v>261535.6797661555</v>
-      </c>
       <c r="P2" t="n">
-        <v>261535.6797661556</v>
+        <v>395143.1881030143</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045618</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340709</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165263.0882595584</v>
+        <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>165263.0882595584</v>
+        <v>171472.7657924763</v>
       </c>
       <c r="D4" t="n">
         <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>53902.87451562436</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="F4" t="n">
-        <v>53902.87451562435</v>
+        <v>81439.57146904286</v>
       </c>
       <c r="G4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="H4" t="n">
         <v>81439.57146904284</v>
-      </c>
-      <c r="H4" t="n">
-        <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="M4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="O4" t="n">
-        <v>53902.87451562435</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="P4" t="n">
-        <v>53902.87451562435</v>
+        <v>81439.57146904284</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915098</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915098</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61064.82148755448</v>
+        <v>-5466.571720992681</v>
       </c>
       <c r="C6" t="n">
-        <v>162634.8770964902</v>
+        <v>92093.74242231168</v>
       </c>
       <c r="D6" t="n">
-        <v>162634.8770964902</v>
+        <v>151107.2815465073</v>
       </c>
       <c r="E6" t="n">
-        <v>154805.7449109241</v>
+        <v>53630.268807129</v>
       </c>
       <c r="F6" t="n">
-        <v>164976.7415113803</v>
+        <v>235985.3780281788</v>
       </c>
       <c r="G6" t="n">
-        <v>77925.90108206961</v>
+        <v>235985.3780281788</v>
       </c>
       <c r="H6" t="n">
-        <v>235985.3780281788</v>
+        <v>235985.3780281789</v>
       </c>
       <c r="I6" t="n">
         <v>235985.3780281788</v>
       </c>
       <c r="J6" t="n">
-        <v>61334.02931047266</v>
+        <v>124970.9126831886</v>
       </c>
       <c r="K6" t="n">
+        <v>182939.5233894064</v>
+      </c>
+      <c r="L6" t="n">
+        <v>226593.0763015563</v>
+      </c>
+      <c r="M6" t="n">
+        <v>83785.20709019116</v>
+      </c>
+      <c r="N6" t="n">
+        <v>235985.3780281789</v>
+      </c>
+      <c r="O6" t="n">
         <v>235985.3780281788</v>
       </c>
-      <c r="L6" t="n">
-        <v>235985.3780281788</v>
-      </c>
-      <c r="M6" t="n">
-        <v>227496.2963248382</v>
-      </c>
-      <c r="N6" t="n">
-        <v>235985.3780281788</v>
-      </c>
-      <c r="O6" t="n">
-        <v>164976.7415113802</v>
-      </c>
       <c r="P6" t="n">
-        <v>164976.7415113802</v>
+        <v>235985.3780281789</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097202</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097202</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186343</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186317</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186343</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.465190568306582</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>185.8757317238693</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>388.2980369478325</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>111.4236523045831</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>73.92098976676664</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>372.7964946687787</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>11.92595336797541</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>36.63864904364472</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,17 +27852,17 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>367.6387245651729</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27910,16 +27912,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>295.6837132199021</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>102.9863699957344</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28062,13 +28064,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>52.01701577190849</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
-        <v>347.9676668794094</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>469.6822035600077</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>72.80589558611007</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>577.1153547606273</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.6534083847603</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,7 +35102,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>317.1830304671599</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35109,7 +35111,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35249,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,10 +35260,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>651.931657540612</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>442.8800547735873</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097205</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>121.2143535006462</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>290.8505511674832</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>756.3484258820585</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36296,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>69.04441372935651</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36847,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>-1.358033040607337e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>655.9981329904112</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>671.1057765021969</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P36" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>673.2333292163983</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>290.8505511674834</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>121.2143535006459</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1287732.221402709</v>
+        <v>1287207.039033677</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916858</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -673,10 +673,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.90522551551056</v>
+        <v>74.44188079972334</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>145.0421591038494</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>169.016847353155</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>409.7401691090819</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>385.4578996949933</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1059,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>127.5805638268478</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>8.482496146596109</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1104,10 +1104,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1116,13 +1116,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1141,7 +1141,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1153,7 +1153,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>63.30706734560965</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1201,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>150.7383063660856</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.91406253606281</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1350,7 +1350,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1378,13 +1378,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1539,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>63.51633119327845</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>31.24391673888106</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1584,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1669,7 +1669,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1821,10 +1821,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>84.71997427496396</v>
       </c>
       <c r="V16" t="n">
-        <v>71.95361350212661</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2134,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2241,22 +2241,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888117</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>64.90507698037962</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>126.7641785672301</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>20.73696989209183</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -2538,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2721,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2772,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>203.5772062825647</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2955,13 +2955,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>109.7358283393287</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>209.6580956704396</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800052</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170217</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3720,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>265.7666606327289</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3799,10 +3799,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655109</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>103.8284742946009</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>146.8581123645739</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4030,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556909</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4194,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.90086530756</v>
+        <v>153.8932738874814</v>
       </c>
       <c r="C2" t="n">
-        <v>810.3191910448285</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D2" t="n">
-        <v>778.4498102596771</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>748.7154694583763</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4333,25 +4333,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4363,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="Y2" t="n">
-        <v>1665.200435792468</v>
+        <v>176.1524403319851</v>
       </c>
     </row>
     <row r="3">
@@ -4409,19 +4409,19 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.5057921365585</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>262.5057921365585</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>262.5057921365585</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>262.5057921365585</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
         <v>262.5057921365585</v>
@@ -4491,19 +4491,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>91.74450617142992</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>509.954387939391</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>930.0072868842942</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1391.434829960384</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="X4" t="n">
-        <v>262.5057921365585</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="Y4" t="n">
-        <v>262.5057921365585</v>
+        <v>1113.00182921349</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1367.397424416625</v>
+        <v>169.9652025024901</v>
       </c>
       <c r="C5" t="n">
-        <v>1333.295355640452</v>
+        <v>135.8631337263175</v>
       </c>
       <c r="D5" t="n">
-        <v>897.3855708148967</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>463.6108259731919</v>
+        <v>74.2594121398653</v>
       </c>
       <c r="F5" t="n">
-        <v>439.7838004228037</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>485.687074042395</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>485.687074042395</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>485.687074042395</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726439</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717422</v>
+        <v>1733.888642131953</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.9664787622</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720795</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657689</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="T5" t="n">
-        <v>2217.900228530727</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="U5" t="n">
-        <v>2217.900228530727</v>
+        <v>2178.745152974709</v>
       </c>
       <c r="V5" t="n">
-        <v>2217.900228530727</v>
+        <v>1816.128202908535</v>
       </c>
       <c r="W5" t="n">
-        <v>1813.044773941761</v>
+        <v>1411.272748319568</v>
       </c>
       <c r="X5" t="n">
-        <v>1797.942714561475</v>
+        <v>992.130284898879</v>
       </c>
       <c r="Y5" t="n">
-        <v>1389.656590861129</v>
+        <v>583.8441611985324</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807698</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174121</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639654</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909191</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070807</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326457</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947704</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993464</v>
+        <v>76.4960597499347</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>1025.155168760925</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424322</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813122</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.908032660533</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1092.481810793636</v>
+        <v>998.1565508175877</v>
       </c>
       <c r="C7" t="n">
-        <v>919.9200992768614</v>
+        <v>825.5948393008126</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>659.7168465023353</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>489.9588427530726</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985995</v>
+        <v>313.2517887148288</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>147.6605137406564</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606127</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255752</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413396</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639178</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.42655460952</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179224</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.96013947722</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055676</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308781</v>
+        <v>2221.768507432332</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179211</v>
+        <v>1934.812999302763</v>
       </c>
       <c r="W7" t="n">
-        <v>1529.692184179211</v>
+        <v>1662.786594889054</v>
       </c>
       <c r="X7" t="n">
-        <v>1284.300429512624</v>
+        <v>1417.394840222467</v>
       </c>
       <c r="Y7" t="n">
-        <v>1284.300429512624</v>
+        <v>1189.975169536575</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2076.000019869234</v>
+        <v>2479.623634536778</v>
       </c>
       <c r="C8" t="n">
-        <v>1637.857547052657</v>
+        <v>2041.481161720201</v>
       </c>
       <c r="D8" t="n">
-        <v>1201.947762227101</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E8" t="n">
-        <v>1172.213421425801</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,16 +4807,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2522.462419942932</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2521.647369394369</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>2506.545310014084</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>2502.299590354141</v>
+        <v>2501.882800981281</v>
       </c>
     </row>
     <row r="9">
@@ -4883,13 +4883,13 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
         <v>1058.729261281022</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="F10" t="n">
         <v>447.554615037751</v>
@@ -4998,16 +4998,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1965.089189266357</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1693.062784852649</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1447.671030186061</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1220.251359500169</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5026,10 +5026,10 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
         <v>391.8077842004234</v>
@@ -5047,10 +5047,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
         <v>2588.899621423628</v>
@@ -5120,28 +5120,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1327.049347523737</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1068.769857140658</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>896.2081456238831</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D13" t="n">
-        <v>730.3301528254058</v>
+        <v>645.8766848899141</v>
       </c>
       <c r="E13" t="n">
-        <v>560.572149076143</v>
+        <v>476.1186811406514</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>299.4116271024076</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>133.8203521282352</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2292.381813755403</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>2005.426305625833</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1733.399901212125</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1488.008146545537</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1260.588475859645</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
@@ -5284,10 +5284,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5317,13 +5317,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5457,19 +5457,19 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2228.223903459162</v>
       </c>
       <c r="V16" t="n">
         <v>1941.268395329592</v>
@@ -5494,22 +5494,22 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5521,10 +5521,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5685,19 +5685,19 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
         <v>2700.681281130895</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5755,16 +5755,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5782,22 +5782,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.088111831086</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883951</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>639.19296617162</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731427</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>473.3149733731427</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5928,34 +5928,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.36663430314</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.41112617357</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759862</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1062.363260807472</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>889.8015492906967</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D25" t="n">
-        <v>723.9235564922194</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="E25" t="n">
-        <v>554.1655527429566</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="F25" t="n">
-        <v>377.4584987047128</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>211.8672237305405</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6186,13 +6186,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1726.993304878938</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1481.601550212351</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1254.181879526459</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>871.6588228237728</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>699.0971113069977</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1808.315271308948</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1536.288866895239</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1290.897112228652</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1063.47744154276</v>
       </c>
     </row>
     <row r="29">
@@ -6466,19 +6466,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1021.77365348828</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2178.821488698831</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>3304.552472135278</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>4284.732138705584</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1004.611946844417</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>832.0502353276421</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>666.1722425291648</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="E31" t="n">
-        <v>496.4142387799021</v>
+        <v>607.2585098297291</v>
       </c>
       <c r="F31" t="n">
         <v>496.4142387799021</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1423.850236249296</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1196.430565563404</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6949,40 +6949,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6995,16 +6995,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G36" t="n">
         <v>143.9964924545671</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7165,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7186,22 +7186,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7232,16 +7232,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G39" t="n">
         <v>143.9964924545671</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3575.440564248063</v>
+        <v>811.7546776883892</v>
       </c>
       <c r="C40" t="n">
-        <v>3402.878852731288</v>
+        <v>639.1929661716141</v>
       </c>
       <c r="D40" t="n">
-        <v>3237.000859932811</v>
+        <v>473.3149733731368</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.242856183548</v>
+        <v>303.5569696238741</v>
       </c>
       <c r="F40" t="n">
-        <v>2890.535802145304</v>
+        <v>126.8499155856303</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354667</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.5989800066023</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745634</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955476</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113121</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338902</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309244</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2559.679081471573</v>
       </c>
       <c r="T40" t="n">
-        <v>4867.162567117437</v>
+        <v>2313.799635050028</v>
       </c>
       <c r="U40" t="n">
-        <v>4588.729566370543</v>
+        <v>2035.366634303134</v>
       </c>
       <c r="V40" t="n">
-        <v>4320.278394014251</v>
+        <v>1748.411126173564</v>
       </c>
       <c r="W40" t="n">
-        <v>4048.251989600542</v>
+        <v>1476.384721759856</v>
       </c>
       <c r="X40" t="n">
-        <v>3802.860234933955</v>
+        <v>1230.992967093268</v>
       </c>
       <c r="Y40" t="n">
-        <v>3575.440564248063</v>
+        <v>1003.573296407376</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7423,31 +7423,31 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257732</v>
@@ -7469,16 +7469,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G42" t="n">
         <v>143.9964924545671</v>
@@ -7487,31 +7487,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>414.500552094942</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>414.500552094942</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L42" t="n">
-        <v>414.500552094942</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M42" t="n">
-        <v>414.500552094942</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N42" t="n">
-        <v>1648.327823655249</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O42" t="n">
-        <v>1648.327823655249</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P42" t="n">
-        <v>1648.327823655249</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>1057.634124109934</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>885.0724125931589</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>719.1944197946816</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>549.4364160454188</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>372.729362007175</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>207.1380870330027</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7581,40 +7581,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113121</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338902</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309244</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.679081471573</v>
       </c>
       <c r="T43" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.679081471573</v>
       </c>
       <c r="U43" t="n">
-        <v>2281.246080724681</v>
+        <v>2281.246080724678</v>
       </c>
       <c r="V43" t="n">
-        <v>1994.290572595111</v>
+        <v>1994.290572595109</v>
       </c>
       <c r="W43" t="n">
-        <v>1845.949044954127</v>
+        <v>1722.2641681814</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1476.872413514813</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1249.452742828921</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7660,40 +7660,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7706,16 +7706,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
         <v>143.9964924545671</v>
@@ -7730,19 +7730,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7833,13 +7833,13 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
         <v>1889.413325832886</v>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8139,22 +8139,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>58.3846844139612</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>72.80589558611007</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>72.80589558611155</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>577.1153547606273</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8382,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671599</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238389</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,10 +8464,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8531,16 +8531,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8768,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>442.8800547735873</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>469.2069973599082</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10129,7 +10129,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,10 +11308,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>111.4236523045829</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>107.2592358276482</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>190.9286964644618</v>
       </c>
       <c r="V16" t="n">
-        <v>212.1323395461472</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>110.0349065174817</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.17580493063124</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>117.7661826744374</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>80.50874676570916</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>65.20415515853267</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>33.27974144948206</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.5921776627284</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>18.31929241554491</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>34.67467827192836</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>122.4480280049975</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>585622.5218857907</v>
+        <v>585622.5218857909</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>607490.8232156126</v>
+        <v>607490.8232156127</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>607490.8232156126</v>
+        <v>607490.8232156127</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>607490.8232156127</v>
+        <v>607490.8232156126</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>607490.8232156126</v>
+        <v>607490.8232156127</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>607490.8232156126</v>
+        <v>607490.8232156127</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>607490.8232156124</v>
+        <v>607490.8232156126</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>607490.8232156126</v>
+        <v>607490.8232156124</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>607490.8232156126</v>
+        <v>607490.8232156124</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>402110.4899178064</v>
+      </c>
+      <c r="C2" t="n">
         <v>402110.4899178063</v>
-      </c>
-      <c r="C2" t="n">
-        <v>402110.4899178065</v>
       </c>
       <c r="D2" t="n">
         <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="F2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="G2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="H2" t="n">
         <v>395143.1881030143</v>
       </c>
       <c r="I2" t="n">
+        <v>395143.1881030141</v>
+      </c>
+      <c r="J2" t="n">
         <v>395143.1881030142</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>395143.1881030142</v>
+      </c>
+      <c r="L2" t="n">
+        <v>395143.1881030142</v>
+      </c>
+      <c r="M2" t="n">
         <v>395143.1881030141</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>395143.1881030141</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>395143.1881030141</v>
       </c>
-      <c r="M2" t="n">
-        <v>395143.1881030142</v>
-      </c>
-      <c r="N2" t="n">
-        <v>395143.1881030143</v>
-      </c>
-      <c r="O2" t="n">
-        <v>395143.1881030142</v>
-      </c>
       <c r="P2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.188103014</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501596</v>
+        <v>66587.76789501625</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998296</v>
+        <v>11527.59554998269</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877235</v>
+        <v>53045.85463877258</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622472</v>
+        <v>9392.301726622249</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>171472.7657924763</v>
+        <v>171472.7657924762</v>
       </c>
       <c r="D4" t="n">
         <v>165263.0882595584</v>
@@ -26429,10 +26429,10 @@
         <v>81439.57146904284</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="H4" t="n">
         <v>81439.57146904284</v>
@@ -26441,25 +26441,25 @@
         <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="P4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800255</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5466.571720992681</v>
+        <v>-5466.571720992644</v>
       </c>
       <c r="C6" t="n">
-        <v>92093.74242231168</v>
+        <v>92093.74242231133</v>
       </c>
       <c r="D6" t="n">
-        <v>151107.2815465073</v>
+        <v>151107.2815465076</v>
       </c>
       <c r="E6" t="n">
-        <v>53630.268807129</v>
+        <v>53607.04446774648</v>
       </c>
       <c r="F6" t="n">
-        <v>235985.3780281788</v>
+        <v>235962.1536887962</v>
       </c>
       <c r="G6" t="n">
-        <v>235985.3780281788</v>
+        <v>235962.1536887962</v>
       </c>
       <c r="H6" t="n">
-        <v>235985.3780281789</v>
+        <v>235962.1536887963</v>
       </c>
       <c r="I6" t="n">
-        <v>235985.3780281788</v>
+        <v>235962.1536887962</v>
       </c>
       <c r="J6" t="n">
-        <v>124970.9126831886</v>
+        <v>124947.688343806</v>
       </c>
       <c r="K6" t="n">
-        <v>182939.5233894064</v>
+        <v>182916.2990500236</v>
       </c>
       <c r="L6" t="n">
-        <v>226593.0763015563</v>
+        <v>226569.8519621739</v>
       </c>
       <c r="M6" t="n">
-        <v>83785.20709019116</v>
+        <v>83761.98275080859</v>
       </c>
       <c r="N6" t="n">
-        <v>235985.3780281789</v>
+        <v>235962.1536887961</v>
       </c>
       <c r="O6" t="n">
-        <v>235985.3780281788</v>
+        <v>235962.1536887962</v>
       </c>
       <c r="P6" t="n">
-        <v>235985.3780281789</v>
+        <v>235962.1536887961</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.2980369478325</v>
+        <v>329.7613816636198</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>98.37849285347986</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>73.92098976676664</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>12.29640567097681</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>11.92595336797541</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>36.63864904364472</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>130.0206564199331</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27912,7 +27912,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>295.6837132199021</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>253.4649560972575</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>54.79268646174563</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28529,7 +28529,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30404,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-2.780827420186445e-12</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30519,7 +30519,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30653,7 +30653,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-2.827960088325199e-12</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>58.3846844139612</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>72.80589558611007</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>72.80589558611155</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>577.1153547606273</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35035,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671599</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238389</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,10 +35184,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35251,16 +35251,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35488,7 +35488,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>442.8800547735873</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35825,7 +35825,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821575</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>469.2069973599082</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36053,10 +36053,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956044</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36123,19 +36123,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36296,7 +36296,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165107</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36834,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36849,7 +36849,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743907788</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37791,10 +37791,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37949,7 +37949,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637955978</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512943</v>
@@ -38028,10 +38028,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38098,22 +38098,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
